--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1111500</v>
+        <v>1097100</v>
       </c>
       <c r="E8" s="3">
-        <v>329900</v>
+        <v>325600</v>
       </c>
       <c r="F8" s="3">
-        <v>62000</v>
+        <v>61200</v>
       </c>
       <c r="G8" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>275000</v>
+        <v>271400</v>
       </c>
       <c r="E9" s="3">
-        <v>83600</v>
+        <v>82500</v>
       </c>
       <c r="F9" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="G9" s="3">
         <v>3900</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>836600</v>
+        <v>825700</v>
       </c>
       <c r="E10" s="3">
-        <v>246300</v>
+        <v>243100</v>
       </c>
       <c r="F10" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="G10" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>114600</v>
+        <v>113100</v>
       </c>
       <c r="E12" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="F12" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-40000</v>
+        <v>-39500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1345300</v>
+        <v>1327800</v>
       </c>
       <c r="E17" s="3">
-        <v>296300</v>
+        <v>292400</v>
       </c>
       <c r="F17" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="G17" s="3">
-        <v>29800</v>
+        <v>29400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-233800</v>
+        <v>-230800</v>
       </c>
       <c r="E18" s="3">
-        <v>33700</v>
+        <v>33200</v>
       </c>
       <c r="F18" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G18" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="E20" s="3">
         <v>4100</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-213800</v>
+        <v>-211000</v>
       </c>
       <c r="E21" s="3">
-        <v>39700</v>
+        <v>39200</v>
       </c>
       <c r="F21" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G21" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-222700</v>
+        <v>-219800</v>
       </c>
       <c r="E23" s="3">
-        <v>37800</v>
+        <v>37300</v>
       </c>
       <c r="F23" s="3">
         <v>3300</v>
       </c>
       <c r="G23" s="3">
-        <v>-14300</v>
+        <v>-14100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E24" s="3">
         <v>2600</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-217300</v>
+        <v>-214500</v>
       </c>
       <c r="E26" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="F26" s="3">
         <v>2900</v>
       </c>
       <c r="G26" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-217300</v>
+        <v>-214500</v>
       </c>
       <c r="E27" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="F27" s="3">
         <v>-3000</v>
       </c>
       <c r="G27" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="E32" s="3">
         <v>-4100</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-217300</v>
+        <v>-214500</v>
       </c>
       <c r="E33" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="F33" s="3">
         <v>-3000</v>
       </c>
       <c r="G33" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-217300</v>
+        <v>-214500</v>
       </c>
       <c r="E35" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="F35" s="3">
         <v>-3000</v>
       </c>
       <c r="G35" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55400</v>
+        <v>54700</v>
       </c>
       <c r="E41" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="F41" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G41" s="3">
         <v>3000</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1143800</v>
+        <v>1128900</v>
       </c>
       <c r="E42" s="3">
-        <v>229900</v>
+        <v>226900</v>
       </c>
       <c r="F42" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="G42" s="3">
         <v>1200</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E43" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="F43" s="3">
         <v>3900</v>
       </c>
       <c r="G43" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103500</v>
+        <v>102200</v>
       </c>
       <c r="E45" s="3">
-        <v>29800</v>
+        <v>29400</v>
       </c>
       <c r="F45" s="3">
         <v>3800</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1319400</v>
+        <v>1302200</v>
       </c>
       <c r="E46" s="3">
-        <v>282200</v>
+        <v>278500</v>
       </c>
       <c r="F46" s="3">
-        <v>43800</v>
+        <v>43200</v>
       </c>
       <c r="G46" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82800</v>
+        <v>81700</v>
       </c>
       <c r="E47" s="3">
-        <v>185400</v>
+        <v>183000</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>235700</v>
+        <v>232700</v>
       </c>
       <c r="E48" s="3">
-        <v>54100</v>
+        <v>53400</v>
       </c>
       <c r="F48" s="3">
         <v>2600</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E52" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F52" s="3">
         <v>5400</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1667100</v>
+        <v>1645400</v>
       </c>
       <c r="E54" s="3">
-        <v>529600</v>
+        <v>522700</v>
       </c>
       <c r="F54" s="3">
-        <v>52800</v>
+        <v>52100</v>
       </c>
       <c r="G54" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>654800</v>
+        <v>646300</v>
       </c>
       <c r="E59" s="3">
-        <v>255400</v>
+        <v>252100</v>
       </c>
       <c r="F59" s="3">
-        <v>55500</v>
+        <v>54800</v>
       </c>
       <c r="G59" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>654800</v>
+        <v>646300</v>
       </c>
       <c r="E60" s="3">
-        <v>255400</v>
+        <v>252100</v>
       </c>
       <c r="F60" s="3">
-        <v>55500</v>
+        <v>54800</v>
       </c>
       <c r="G60" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>118300</v>
+        <v>116800</v>
       </c>
       <c r="E62" s="3">
-        <v>31200</v>
+        <v>30800</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>773200</v>
+        <v>763100</v>
       </c>
       <c r="E66" s="3">
-        <v>286600</v>
+        <v>282900</v>
       </c>
       <c r="F66" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="G66" s="3">
-        <v>24300</v>
+        <v>23900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>72700</v>
+        <v>71800</v>
       </c>
       <c r="G70" s="3">
-        <v>66600</v>
+        <v>65800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-259900</v>
+        <v>-256500</v>
       </c>
       <c r="E72" s="3">
-        <v>-42600</v>
+        <v>-42000</v>
       </c>
       <c r="F72" s="3">
-        <v>-77000</v>
+        <v>-76000</v>
       </c>
       <c r="G72" s="3">
-        <v>-74900</v>
+        <v>-74000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>893900</v>
+        <v>882300</v>
       </c>
       <c r="E76" s="3">
-        <v>243000</v>
+        <v>239800</v>
       </c>
       <c r="F76" s="3">
-        <v>-76800</v>
+        <v>-75900</v>
       </c>
       <c r="G76" s="3">
-        <v>-74800</v>
+        <v>-73900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-217300</v>
+        <v>-214500</v>
       </c>
       <c r="E81" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="F81" s="3">
         <v>-3000</v>
       </c>
       <c r="G81" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
       <c r="F83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>94100</v>
+        <v>92900</v>
       </c>
       <c r="E89" s="3">
-        <v>200500</v>
+        <v>197900</v>
       </c>
       <c r="F89" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="G89" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55900</v>
+        <v>-55200</v>
       </c>
       <c r="E91" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="F91" s="3">
         <v>-1900</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-873100</v>
+        <v>-861700</v>
       </c>
       <c r="E94" s="3">
-        <v>-390700</v>
+        <v>-385700</v>
       </c>
       <c r="F94" s="3">
-        <v>-31000</v>
+        <v>-30600</v>
       </c>
       <c r="G94" s="3">
         <v>-1600</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>822500</v>
+        <v>811800</v>
       </c>
       <c r="E100" s="3">
-        <v>194400</v>
+        <v>191900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G100" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="E102" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1097100</v>
+        <v>1115400</v>
       </c>
       <c r="E8" s="3">
-        <v>325600</v>
+        <v>331100</v>
       </c>
       <c r="F8" s="3">
-        <v>61200</v>
+        <v>62200</v>
       </c>
       <c r="G8" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>271400</v>
+        <v>275900</v>
       </c>
       <c r="E9" s="3">
-        <v>82500</v>
+        <v>83900</v>
       </c>
       <c r="F9" s="3">
-        <v>22000</v>
+        <v>22300</v>
       </c>
       <c r="G9" s="3">
         <v>3900</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>825700</v>
+        <v>839500</v>
       </c>
       <c r="E10" s="3">
-        <v>243100</v>
+        <v>247200</v>
       </c>
       <c r="F10" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="G10" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>113100</v>
+        <v>115000</v>
       </c>
       <c r="E12" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="F12" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="G12" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-39500</v>
+        <v>-40100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1327800</v>
+        <v>1350100</v>
       </c>
       <c r="E17" s="3">
-        <v>292400</v>
+        <v>297300</v>
       </c>
       <c r="F17" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="G17" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-230800</v>
+        <v>-234600</v>
       </c>
       <c r="E18" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="F18" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G18" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="E20" s="3">
         <v>4100</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-211000</v>
+        <v>-214600</v>
       </c>
       <c r="E21" s="3">
-        <v>39200</v>
+        <v>39800</v>
       </c>
       <c r="F21" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-219800</v>
+        <v>-223500</v>
       </c>
       <c r="E23" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="F23" s="3">
         <v>3300</v>
       </c>
       <c r="G23" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E24" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-214500</v>
+        <v>-218100</v>
       </c>
       <c r="E26" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="F26" s="3">
         <v>2900</v>
       </c>
       <c r="G26" s="3">
-        <v>-13400</v>
+        <v>-13600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-214500</v>
+        <v>-218100</v>
       </c>
       <c r="E27" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="F27" s="3">
         <v>-3000</v>
       </c>
       <c r="G27" s="3">
-        <v>-19400</v>
+        <v>-19700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="E32" s="3">
         <v>-4100</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-214500</v>
+        <v>-218100</v>
       </c>
       <c r="E33" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="F33" s="3">
         <v>-3000</v>
       </c>
       <c r="G33" s="3">
-        <v>-19400</v>
+        <v>-19700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-214500</v>
+        <v>-218100</v>
       </c>
       <c r="E35" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="F35" s="3">
         <v>-3000</v>
       </c>
       <c r="G35" s="3">
-        <v>-19400</v>
+        <v>-19700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54700</v>
+        <v>55600</v>
       </c>
       <c r="E41" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F41" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G41" s="3">
         <v>3000</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1128900</v>
+        <v>1147800</v>
       </c>
       <c r="E42" s="3">
-        <v>226900</v>
+        <v>230700</v>
       </c>
       <c r="F42" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="G42" s="3">
         <v>1200</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="E43" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="F43" s="3">
         <v>3900</v>
       </c>
       <c r="G43" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102200</v>
+        <v>103900</v>
       </c>
       <c r="E45" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="F45" s="3">
         <v>3800</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1302200</v>
+        <v>1324100</v>
       </c>
       <c r="E46" s="3">
-        <v>278500</v>
+        <v>283200</v>
       </c>
       <c r="F46" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="G46" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81700</v>
+        <v>83100</v>
       </c>
       <c r="E47" s="3">
-        <v>183000</v>
+        <v>186000</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>232700</v>
+        <v>236600</v>
       </c>
       <c r="E48" s="3">
-        <v>53400</v>
+        <v>54300</v>
       </c>
       <c r="F48" s="3">
         <v>2600</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="E52" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G52" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1645400</v>
+        <v>1673000</v>
       </c>
       <c r="E54" s="3">
-        <v>522700</v>
+        <v>531400</v>
       </c>
       <c r="F54" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="G54" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>646300</v>
+        <v>657100</v>
       </c>
       <c r="E59" s="3">
-        <v>252100</v>
+        <v>256300</v>
       </c>
       <c r="F59" s="3">
-        <v>54800</v>
+        <v>55700</v>
       </c>
       <c r="G59" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>646300</v>
+        <v>657100</v>
       </c>
       <c r="E60" s="3">
-        <v>252100</v>
+        <v>256300</v>
       </c>
       <c r="F60" s="3">
-        <v>54800</v>
+        <v>55700</v>
       </c>
       <c r="G60" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>116800</v>
+        <v>118800</v>
       </c>
       <c r="E62" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>763100</v>
+        <v>775900</v>
       </c>
       <c r="E66" s="3">
-        <v>282900</v>
+        <v>287600</v>
       </c>
       <c r="F66" s="3">
-        <v>56200</v>
+        <v>57100</v>
       </c>
       <c r="G66" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>71800</v>
+        <v>73000</v>
       </c>
       <c r="G70" s="3">
-        <v>65800</v>
+        <v>66900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-256500</v>
+        <v>-260800</v>
       </c>
       <c r="E72" s="3">
-        <v>-42000</v>
+        <v>-42700</v>
       </c>
       <c r="F72" s="3">
-        <v>-76000</v>
+        <v>-77300</v>
       </c>
       <c r="G72" s="3">
-        <v>-74000</v>
+        <v>-75200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>882300</v>
+        <v>897100</v>
       </c>
       <c r="E76" s="3">
-        <v>239800</v>
+        <v>243800</v>
       </c>
       <c r="F76" s="3">
-        <v>-75900</v>
+        <v>-77100</v>
       </c>
       <c r="G76" s="3">
-        <v>-73900</v>
+        <v>-75100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-214500</v>
+        <v>-218100</v>
       </c>
       <c r="E81" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="F81" s="3">
         <v>-3000</v>
       </c>
       <c r="G81" s="3">
-        <v>-19400</v>
+        <v>-19700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="E83" s="3">
         <v>1900</v>
       </c>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92900</v>
+        <v>94400</v>
       </c>
       <c r="E89" s="3">
-        <v>197900</v>
+        <v>201200</v>
       </c>
       <c r="F89" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="G89" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55200</v>
+        <v>-56100</v>
       </c>
       <c r="E91" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="F91" s="3">
         <v>-1900</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-861700</v>
+        <v>-876200</v>
       </c>
       <c r="E94" s="3">
-        <v>-385700</v>
+        <v>-392100</v>
       </c>
       <c r="F94" s="3">
-        <v>-30600</v>
+        <v>-31100</v>
       </c>
       <c r="G94" s="3">
         <v>-1600</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>811800</v>
+        <v>825400</v>
       </c>
       <c r="E100" s="3">
-        <v>191900</v>
+        <v>195100</v>
       </c>
       <c r="F100" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="G100" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43300</v>
+        <v>44000</v>
       </c>
       <c r="E102" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1115400</v>
+        <v>1035200</v>
       </c>
       <c r="E8" s="3">
-        <v>331100</v>
+        <v>1124000</v>
       </c>
       <c r="F8" s="3">
-        <v>62200</v>
+        <v>333600</v>
       </c>
       <c r="G8" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>62700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,63 +735,72 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>275900</v>
+        <v>378200</v>
       </c>
       <c r="E9" s="3">
-        <v>83900</v>
+        <v>278100</v>
       </c>
       <c r="F9" s="3">
-        <v>22300</v>
+        <v>84500</v>
       </c>
       <c r="G9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>839500</v>
+        <v>656900</v>
       </c>
       <c r="E10" s="3">
-        <v>247200</v>
+        <v>845900</v>
       </c>
       <c r="F10" s="3">
-        <v>39900</v>
+        <v>249100</v>
       </c>
       <c r="G10" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H10" s="3">
         <v>11400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,25 +812,26 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>115000</v>
+        <v>197700</v>
       </c>
       <c r="E12" s="3">
-        <v>33200</v>
+        <v>115900</v>
       </c>
       <c r="F12" s="3">
-        <v>11600</v>
+        <v>33500</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8300</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>15100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1350100</v>
+        <v>1536900</v>
       </c>
       <c r="E17" s="3">
-        <v>297300</v>
+        <v>1360400</v>
       </c>
       <c r="F17" s="3">
-        <v>59200</v>
+        <v>299600</v>
       </c>
       <c r="G17" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>59700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>30100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,26 +970,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-234600</v>
+        <v>-501700</v>
       </c>
       <c r="E18" s="3">
-        <v>33800</v>
+        <v>-236400</v>
       </c>
       <c r="F18" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-14800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,52 +1017,56 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11100</v>
+        <v>18600</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-214600</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>39800</v>
+        <v>-216200</v>
       </c>
       <c r="F21" s="3">
+        <v>40100</v>
+      </c>
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>-13600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,26 +1104,29 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-223500</v>
+        <v>-483100</v>
       </c>
       <c r="E23" s="3">
-        <v>37900</v>
+        <v>-225200</v>
       </c>
       <c r="F23" s="3">
-        <v>3300</v>
+        <v>38200</v>
       </c>
       <c r="G23" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-14400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1092,36 +1134,42 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5400</v>
+        <v>6500</v>
       </c>
       <c r="E24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,26 +1194,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-218100</v>
+        <v>-489600</v>
       </c>
       <c r="E26" s="3">
-        <v>35300</v>
+        <v>-219800</v>
       </c>
       <c r="F26" s="3">
-        <v>2900</v>
+        <v>35500</v>
       </c>
       <c r="G26" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-13700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1173,26 +1224,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-218100</v>
+        <v>-489600</v>
       </c>
       <c r="E27" s="3">
-        <v>29500</v>
+        <v>-219700</v>
       </c>
       <c r="F27" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>-19900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,53 +1374,59 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11100</v>
+        <v>-18600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-218100</v>
+        <v>-489600</v>
       </c>
       <c r="E33" s="3">
-        <v>29500</v>
+        <v>-219700</v>
       </c>
       <c r="F33" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>-19900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,26 +1464,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-218100</v>
+        <v>-489600</v>
       </c>
       <c r="E35" s="3">
-        <v>29500</v>
+        <v>-219700</v>
       </c>
       <c r="F35" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>-19900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1416,41 +1494,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,52 +1560,56 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55600</v>
+        <v>115000</v>
       </c>
       <c r="E41" s="3">
-        <v>11600</v>
+        <v>56000</v>
       </c>
       <c r="F41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1147800</v>
+        <v>437600</v>
       </c>
       <c r="E42" s="3">
-        <v>230700</v>
+        <v>1156600</v>
       </c>
       <c r="F42" s="3">
-        <v>31000</v>
+        <v>232500</v>
       </c>
       <c r="G42" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>31200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1528,44 +1617,50 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>9300</v>
       </c>
-      <c r="E43" s="3">
-        <v>11000</v>
-      </c>
       <c r="F43" s="3">
-        <v>3900</v>
+        <v>11100</v>
       </c>
       <c r="G43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7500</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7600</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1582,53 +1677,59 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103900</v>
+        <v>66000</v>
       </c>
       <c r="E45" s="3">
-        <v>29900</v>
+        <v>104700</v>
       </c>
       <c r="F45" s="3">
-        <v>3800</v>
+        <v>30100</v>
       </c>
       <c r="G45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1324100</v>
+        <v>621100</v>
       </c>
       <c r="E46" s="3">
-        <v>283200</v>
+        <v>1334200</v>
       </c>
       <c r="F46" s="3">
-        <v>44000</v>
+        <v>285400</v>
       </c>
       <c r="G46" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>44300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1636,80 +1737,89 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>186000</v>
+        <v>83700</v>
       </c>
       <c r="F47" s="3">
+        <v>187500</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>236600</v>
+        <v>163100</v>
       </c>
       <c r="E48" s="3">
-        <v>54300</v>
+        <v>238400</v>
       </c>
       <c r="F48" s="3">
+        <v>54700</v>
+      </c>
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>13400</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>13500</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15800</v>
+        <v>8500</v>
       </c>
       <c r="E52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,26 +1947,29 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1673000</v>
+        <v>792700</v>
       </c>
       <c r="E54" s="3">
-        <v>531400</v>
+        <v>1685800</v>
       </c>
       <c r="F54" s="3">
-        <v>52900</v>
+        <v>535500</v>
       </c>
       <c r="G54" s="3">
-        <v>16200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>53400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,26 +2065,29 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>657100</v>
+        <v>277700</v>
       </c>
       <c r="E59" s="3">
-        <v>256300</v>
+        <v>662200</v>
       </c>
       <c r="F59" s="3">
-        <v>55700</v>
+        <v>258300</v>
       </c>
       <c r="G59" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>56100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>24500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -1959,26 +2095,29 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>657100</v>
+        <v>277700</v>
       </c>
       <c r="E60" s="3">
-        <v>256300</v>
+        <v>662200</v>
       </c>
       <c r="F60" s="3">
-        <v>55700</v>
+        <v>258300</v>
       </c>
       <c r="G60" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>56100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>24500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,36 +2155,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>118800</v>
+        <v>60500</v>
       </c>
       <c r="E62" s="3">
-        <v>31300</v>
+        <v>119700</v>
       </c>
       <c r="F62" s="3">
+        <v>31500</v>
+      </c>
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,26 +2275,29 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>775900</v>
+        <v>338200</v>
       </c>
       <c r="E66" s="3">
-        <v>287600</v>
+        <v>781800</v>
       </c>
       <c r="F66" s="3">
-        <v>57100</v>
+        <v>289800</v>
       </c>
       <c r="G66" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>57500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>24500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2228,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>66900</v>
+        <v>73500</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>67400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,26 +2439,29 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-260800</v>
+        <v>-752400</v>
       </c>
       <c r="E72" s="3">
-        <v>-42700</v>
+        <v>-262800</v>
       </c>
       <c r="F72" s="3">
-        <v>-77300</v>
+        <v>-43100</v>
       </c>
       <c r="G72" s="3">
-        <v>-75200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-77900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-75800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,26 +2559,29 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>897100</v>
+        <v>454500</v>
       </c>
       <c r="E76" s="3">
-        <v>243800</v>
+        <v>903900</v>
       </c>
       <c r="F76" s="3">
-        <v>-77100</v>
+        <v>245700</v>
       </c>
       <c r="G76" s="3">
-        <v>-75100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-77700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-75600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,58 +2619,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-218100</v>
+        <v>-489600</v>
       </c>
       <c r="E81" s="3">
-        <v>29500</v>
+        <v>-219700</v>
       </c>
       <c r="F81" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>-19900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>9000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>94400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>201200</v>
+        <v>95200</v>
       </c>
       <c r="F89" s="3">
-        <v>37900</v>
+        <v>202700</v>
       </c>
       <c r="G89" s="3">
+        <v>38200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-56100</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-9600</v>
+        <v>-56500</v>
       </c>
       <c r="F91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-876200</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-392100</v>
+        <v>-882900</v>
       </c>
       <c r="F94" s="3">
-        <v>-31100</v>
+        <v>-395100</v>
       </c>
       <c r="G94" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,53 +3176,59 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>825400</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>195100</v>
+        <v>831700</v>
       </c>
       <c r="F100" s="3">
+        <v>196600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -2988,34 +3236,40 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>44000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F102" s="3">
         <v>6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1035200</v>
+        <v>966900</v>
       </c>
       <c r="E8" s="3">
-        <v>1124000</v>
+        <v>1049900</v>
       </c>
       <c r="F8" s="3">
-        <v>333600</v>
+        <v>311600</v>
       </c>
       <c r="G8" s="3">
-        <v>62700</v>
+        <v>58500</v>
       </c>
       <c r="H8" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>378200</v>
+        <v>353300</v>
       </c>
       <c r="E9" s="3">
-        <v>278100</v>
+        <v>259700</v>
       </c>
       <c r="F9" s="3">
-        <v>84500</v>
+        <v>79000</v>
       </c>
       <c r="G9" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="H9" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>656900</v>
+        <v>613600</v>
       </c>
       <c r="E10" s="3">
-        <v>845900</v>
+        <v>790200</v>
       </c>
       <c r="F10" s="3">
-        <v>249100</v>
+        <v>232700</v>
       </c>
       <c r="G10" s="3">
-        <v>40200</v>
+        <v>37500</v>
       </c>
       <c r="H10" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -819,19 +819,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>197700</v>
+        <v>184600</v>
       </c>
       <c r="E12" s="3">
-        <v>115900</v>
+        <v>108200</v>
       </c>
       <c r="F12" s="3">
-        <v>33500</v>
+        <v>31300</v>
       </c>
       <c r="G12" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="H12" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="E14" s="3">
-        <v>-40400</v>
+        <v>-37800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1536900</v>
+        <v>1435600</v>
       </c>
       <c r="E17" s="3">
-        <v>1360400</v>
+        <v>1270700</v>
       </c>
       <c r="F17" s="3">
-        <v>299600</v>
+        <v>279900</v>
       </c>
       <c r="G17" s="3">
-        <v>59700</v>
+        <v>55700</v>
       </c>
       <c r="H17" s="3">
-        <v>30100</v>
+        <v>28200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-501700</v>
+        <v>-468700</v>
       </c>
       <c r="E18" s="3">
-        <v>-236400</v>
+        <v>-220800</v>
       </c>
       <c r="F18" s="3">
-        <v>34000</v>
+        <v>31800</v>
       </c>
       <c r="G18" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H18" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,16 +1024,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="E20" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="F20" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="G20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
@@ -1053,20 +1053,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-434500</v>
       </c>
       <c r="E21" s="3">
-        <v>-216200</v>
+        <v>-201900</v>
       </c>
       <c r="F21" s="3">
-        <v>40100</v>
+        <v>37500</v>
       </c>
       <c r="G21" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H21" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-483100</v>
+        <v>-451200</v>
       </c>
       <c r="E23" s="3">
-        <v>-225200</v>
+        <v>-210400</v>
       </c>
       <c r="F23" s="3">
-        <v>38200</v>
+        <v>35700</v>
       </c>
       <c r="G23" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H23" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="E24" s="3">
-        <v>-5500</v>
+        <v>-5100</v>
       </c>
       <c r="F24" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-489600</v>
+        <v>-457300</v>
       </c>
       <c r="E26" s="3">
-        <v>-219800</v>
+        <v>-205300</v>
       </c>
       <c r="F26" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="G26" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H26" s="3">
-        <v>-13700</v>
+        <v>-12800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-489600</v>
+        <v>-457300</v>
       </c>
       <c r="E27" s="3">
-        <v>-219700</v>
+        <v>-205300</v>
       </c>
       <c r="F27" s="3">
-        <v>29700</v>
+        <v>27700</v>
       </c>
       <c r="G27" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="H27" s="3">
-        <v>-19900</v>
+        <v>-18600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,16 +1384,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18600</v>
+        <v>-17400</v>
       </c>
       <c r="E32" s="3">
-        <v>-11200</v>
+        <v>-10500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-489600</v>
+        <v>-457300</v>
       </c>
       <c r="E33" s="3">
-        <v>-219700</v>
+        <v>-205300</v>
       </c>
       <c r="F33" s="3">
-        <v>29700</v>
+        <v>27700</v>
       </c>
       <c r="G33" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="H33" s="3">
-        <v>-19900</v>
+        <v>-18600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-489600</v>
+        <v>-457300</v>
       </c>
       <c r="E35" s="3">
-        <v>-219700</v>
+        <v>-205300</v>
       </c>
       <c r="F35" s="3">
-        <v>29700</v>
+        <v>27700</v>
       </c>
       <c r="G35" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="H35" s="3">
-        <v>-19900</v>
+        <v>-18600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115000</v>
+        <v>107400</v>
       </c>
       <c r="E41" s="3">
-        <v>56000</v>
+        <v>52300</v>
       </c>
       <c r="F41" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="G41" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H41" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>437600</v>
+        <v>408800</v>
       </c>
       <c r="E42" s="3">
-        <v>1156600</v>
+        <v>1080300</v>
       </c>
       <c r="F42" s="3">
-        <v>232500</v>
+        <v>217100</v>
       </c>
       <c r="G42" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="H42" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1626,20 +1626,20 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>7400</v>
       </c>
       <c r="E43" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="F43" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="G43" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H43" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E44" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66000</v>
+        <v>54300</v>
       </c>
       <c r="E45" s="3">
-        <v>104700</v>
+        <v>97800</v>
       </c>
       <c r="F45" s="3">
-        <v>30100</v>
+        <v>28100</v>
       </c>
       <c r="G45" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>621100</v>
+        <v>580100</v>
       </c>
       <c r="E46" s="3">
-        <v>1334200</v>
+        <v>1246300</v>
       </c>
       <c r="F46" s="3">
-        <v>285400</v>
+        <v>266600</v>
       </c>
       <c r="G46" s="3">
-        <v>44300</v>
+        <v>41400</v>
       </c>
       <c r="H46" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1746,20 +1746,20 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>83700</v>
+        <v>78200</v>
       </c>
       <c r="F47" s="3">
-        <v>187500</v>
+        <v>175100</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
       </c>
       <c r="H47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>163100</v>
+        <v>152400</v>
       </c>
       <c r="E48" s="3">
-        <v>238400</v>
+        <v>222700</v>
       </c>
       <c r="F48" s="3">
-        <v>54700</v>
+        <v>51100</v>
       </c>
       <c r="G48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -1806,11 +1806,11 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="F52" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="G52" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>792700</v>
+        <v>740400</v>
       </c>
       <c r="E54" s="3">
-        <v>1685800</v>
+        <v>1574700</v>
       </c>
       <c r="F54" s="3">
-        <v>535500</v>
+        <v>500200</v>
       </c>
       <c r="G54" s="3">
-        <v>53400</v>
+        <v>49800</v>
       </c>
       <c r="H54" s="3">
-        <v>16300</v>
+        <v>15200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>277700</v>
+        <v>259400</v>
       </c>
       <c r="E59" s="3">
-        <v>662200</v>
+        <v>618500</v>
       </c>
       <c r="F59" s="3">
-        <v>258300</v>
+        <v>241300</v>
       </c>
       <c r="G59" s="3">
-        <v>56100</v>
+        <v>52400</v>
       </c>
       <c r="H59" s="3">
-        <v>24500</v>
+        <v>22800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>277700</v>
+        <v>259400</v>
       </c>
       <c r="E60" s="3">
-        <v>662200</v>
+        <v>618500</v>
       </c>
       <c r="F60" s="3">
-        <v>258300</v>
+        <v>241300</v>
       </c>
       <c r="G60" s="3">
-        <v>56100</v>
+        <v>52400</v>
       </c>
       <c r="H60" s="3">
-        <v>24500</v>
+        <v>22800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60500</v>
+        <v>56500</v>
       </c>
       <c r="E62" s="3">
-        <v>119700</v>
+        <v>111800</v>
       </c>
       <c r="F62" s="3">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="G62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>338200</v>
+        <v>315900</v>
       </c>
       <c r="E66" s="3">
-        <v>781800</v>
+        <v>730300</v>
       </c>
       <c r="F66" s="3">
-        <v>289800</v>
+        <v>270700</v>
       </c>
       <c r="G66" s="3">
-        <v>57500</v>
+        <v>53700</v>
       </c>
       <c r="H66" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>73500</v>
+        <v>68700</v>
       </c>
       <c r="H70" s="3">
-        <v>67400</v>
+        <v>62900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-752400</v>
+        <v>-702800</v>
       </c>
       <c r="E72" s="3">
-        <v>-262800</v>
+        <v>-245500</v>
       </c>
       <c r="F72" s="3">
-        <v>-43100</v>
+        <v>-40200</v>
       </c>
       <c r="G72" s="3">
-        <v>-77900</v>
+        <v>-72800</v>
       </c>
       <c r="H72" s="3">
-        <v>-75800</v>
+        <v>-70800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>454500</v>
+        <v>424500</v>
       </c>
       <c r="E76" s="3">
-        <v>903900</v>
+        <v>844400</v>
       </c>
       <c r="F76" s="3">
-        <v>245700</v>
+        <v>229500</v>
       </c>
       <c r="G76" s="3">
-        <v>-77700</v>
+        <v>-72600</v>
       </c>
       <c r="H76" s="3">
-        <v>-75600</v>
+        <v>-70600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-489600</v>
+        <v>-457300</v>
       </c>
       <c r="E81" s="3">
-        <v>-219700</v>
+        <v>-205300</v>
       </c>
       <c r="F81" s="3">
-        <v>29700</v>
+        <v>27700</v>
       </c>
       <c r="G81" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="H81" s="3">
-        <v>-19900</v>
+        <v>-18600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2707,20 +2707,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>16600</v>
       </c>
       <c r="E83" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2887,20 +2887,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-616800</v>
       </c>
       <c r="E89" s="3">
-        <v>95200</v>
+        <v>88900</v>
       </c>
       <c r="F89" s="3">
-        <v>202700</v>
+        <v>189400</v>
       </c>
       <c r="G89" s="3">
-        <v>38200</v>
+        <v>35600</v>
       </c>
       <c r="H89" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2931,17 +2931,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-40100</v>
       </c>
       <c r="E91" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9700</v>
+        <v>-9000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -3021,20 +3021,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>709200</v>
       </c>
       <c r="E94" s="3">
-        <v>-882900</v>
+        <v>-824700</v>
       </c>
       <c r="F94" s="3">
-        <v>-395100</v>
+        <v>-369100</v>
       </c>
       <c r="G94" s="3">
-        <v>-31400</v>
+        <v>-29300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3185,20 +3185,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-14800</v>
       </c>
       <c r="E100" s="3">
-        <v>831700</v>
+        <v>776900</v>
       </c>
       <c r="F100" s="3">
-        <v>196600</v>
+        <v>183600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="H100" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3215,14 +3215,14 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3245,17 +3245,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>79900</v>
       </c>
       <c r="E102" s="3">
-        <v>44400</v>
+        <v>41400</v>
       </c>
       <c r="F102" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="G102" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>966900</v>
+        <v>958200</v>
       </c>
       <c r="E8" s="3">
-        <v>1049900</v>
+        <v>1040400</v>
       </c>
       <c r="F8" s="3">
-        <v>311600</v>
+        <v>308800</v>
       </c>
       <c r="G8" s="3">
-        <v>58500</v>
+        <v>58000</v>
       </c>
       <c r="H8" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>353300</v>
+        <v>350100</v>
       </c>
       <c r="E9" s="3">
-        <v>259700</v>
+        <v>257400</v>
       </c>
       <c r="F9" s="3">
-        <v>79000</v>
+        <v>78300</v>
       </c>
       <c r="G9" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H9" s="3">
         <v>3700</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>613600</v>
+        <v>608100</v>
       </c>
       <c r="E10" s="3">
-        <v>790200</v>
+        <v>783000</v>
       </c>
       <c r="F10" s="3">
-        <v>232700</v>
+        <v>230600</v>
       </c>
       <c r="G10" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="H10" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>184600</v>
+        <v>183000</v>
       </c>
       <c r="E12" s="3">
-        <v>108200</v>
+        <v>107300</v>
       </c>
       <c r="F12" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="G12" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H12" s="3">
         <v>7700</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="E14" s="3">
-        <v>-37800</v>
+        <v>-37400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1435600</v>
+        <v>1422600</v>
       </c>
       <c r="E17" s="3">
-        <v>1270700</v>
+        <v>1259300</v>
       </c>
       <c r="F17" s="3">
-        <v>279900</v>
+        <v>277300</v>
       </c>
       <c r="G17" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="H17" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-468700</v>
+        <v>-464400</v>
       </c>
       <c r="E18" s="3">
-        <v>-220800</v>
+        <v>-218800</v>
       </c>
       <c r="F18" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="G18" s="3">
         <v>2800</v>
       </c>
       <c r="H18" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="E20" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="F20" s="3">
         <v>3900</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-434500</v>
+        <v>-430800</v>
       </c>
       <c r="E21" s="3">
-        <v>-201900</v>
+        <v>-200100</v>
       </c>
       <c r="F21" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="G21" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H21" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-451200</v>
+        <v>-447200</v>
       </c>
       <c r="E23" s="3">
-        <v>-210400</v>
+        <v>-208500</v>
       </c>
       <c r="F23" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="G23" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H23" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-457300</v>
+        <v>-453200</v>
       </c>
       <c r="E26" s="3">
-        <v>-205300</v>
+        <v>-203400</v>
       </c>
       <c r="F26" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="G26" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H26" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-457300</v>
+        <v>-453200</v>
       </c>
       <c r="E27" s="3">
-        <v>-205300</v>
+        <v>-203400</v>
       </c>
       <c r="F27" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="G27" s="3">
         <v>-2800</v>
       </c>
       <c r="H27" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17400</v>
+        <v>-17300</v>
       </c>
       <c r="E32" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="F32" s="3">
         <v>-3900</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-457300</v>
+        <v>-453200</v>
       </c>
       <c r="E33" s="3">
-        <v>-205300</v>
+        <v>-203400</v>
       </c>
       <c r="F33" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="G33" s="3">
         <v>-2800</v>
       </c>
       <c r="H33" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-457300</v>
+        <v>-453200</v>
       </c>
       <c r="E35" s="3">
-        <v>-205300</v>
+        <v>-203400</v>
       </c>
       <c r="F35" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="G35" s="3">
         <v>-2800</v>
       </c>
       <c r="H35" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107400</v>
+        <v>106400</v>
       </c>
       <c r="E41" s="3">
-        <v>52300</v>
+        <v>51900</v>
       </c>
       <c r="F41" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G41" s="3">
         <v>4900</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>408800</v>
+        <v>405100</v>
       </c>
       <c r="E42" s="3">
-        <v>1080300</v>
+        <v>1070600</v>
       </c>
       <c r="F42" s="3">
-        <v>217100</v>
+        <v>215200</v>
       </c>
       <c r="G42" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="H42" s="3">
         <v>1200</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E43" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="F43" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G43" s="3">
         <v>3700</v>
@@ -1660,7 +1660,7 @@
         <v>2300</v>
       </c>
       <c r="E44" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="E45" s="3">
-        <v>97800</v>
+        <v>96900</v>
       </c>
       <c r="F45" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="G45" s="3">
         <v>3600</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>580100</v>
+        <v>574900</v>
       </c>
       <c r="E46" s="3">
-        <v>1246300</v>
+        <v>1235000</v>
       </c>
       <c r="F46" s="3">
-        <v>266600</v>
+        <v>264200</v>
       </c>
       <c r="G46" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="H46" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1750,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>78200</v>
+        <v>77500</v>
       </c>
       <c r="F47" s="3">
-        <v>175100</v>
+        <v>173500</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>152400</v>
+        <v>151000</v>
       </c>
       <c r="E48" s="3">
-        <v>222700</v>
+        <v>220600</v>
       </c>
       <c r="F48" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="G48" s="3">
         <v>2500</v>
       </c>
       <c r="H48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1810,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E52" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="F52" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G52" s="3">
         <v>5100</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>740400</v>
+        <v>733800</v>
       </c>
       <c r="E54" s="3">
-        <v>1574700</v>
+        <v>1560400</v>
       </c>
       <c r="F54" s="3">
-        <v>500200</v>
+        <v>495700</v>
       </c>
       <c r="G54" s="3">
-        <v>49800</v>
+        <v>49400</v>
       </c>
       <c r="H54" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>259400</v>
+        <v>257100</v>
       </c>
       <c r="E59" s="3">
-        <v>618500</v>
+        <v>612900</v>
       </c>
       <c r="F59" s="3">
-        <v>241300</v>
+        <v>239100</v>
       </c>
       <c r="G59" s="3">
-        <v>52400</v>
+        <v>52000</v>
       </c>
       <c r="H59" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259400</v>
+        <v>257100</v>
       </c>
       <c r="E60" s="3">
-        <v>618500</v>
+        <v>612900</v>
       </c>
       <c r="F60" s="3">
-        <v>241300</v>
+        <v>239100</v>
       </c>
       <c r="G60" s="3">
-        <v>52400</v>
+        <v>52000</v>
       </c>
       <c r="H60" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56500</v>
+        <v>56000</v>
       </c>
       <c r="E62" s="3">
-        <v>111800</v>
+        <v>110800</v>
       </c>
       <c r="F62" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="G62" s="3">
         <v>1300</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>315900</v>
+        <v>313000</v>
       </c>
       <c r="E66" s="3">
-        <v>730300</v>
+        <v>723700</v>
       </c>
       <c r="F66" s="3">
-        <v>270700</v>
+        <v>268300</v>
       </c>
       <c r="G66" s="3">
-        <v>53700</v>
+        <v>53300</v>
       </c>
       <c r="H66" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>68700</v>
+        <v>68100</v>
       </c>
       <c r="H70" s="3">
-        <v>62900</v>
+        <v>62400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-702800</v>
+        <v>-696500</v>
       </c>
       <c r="E72" s="3">
-        <v>-245500</v>
+        <v>-243300</v>
       </c>
       <c r="F72" s="3">
-        <v>-40200</v>
+        <v>-39900</v>
       </c>
       <c r="G72" s="3">
-        <v>-72800</v>
+        <v>-72100</v>
       </c>
       <c r="H72" s="3">
-        <v>-70800</v>
+        <v>-70200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>424500</v>
+        <v>420700</v>
       </c>
       <c r="E76" s="3">
-        <v>844400</v>
+        <v>836700</v>
       </c>
       <c r="F76" s="3">
-        <v>229500</v>
+        <v>227400</v>
       </c>
       <c r="G76" s="3">
-        <v>-72600</v>
+        <v>-72000</v>
       </c>
       <c r="H76" s="3">
-        <v>-70600</v>
+        <v>-70000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-457300</v>
+        <v>-453200</v>
       </c>
       <c r="E81" s="3">
-        <v>-205300</v>
+        <v>-203400</v>
       </c>
       <c r="F81" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="G81" s="3">
         <v>-2800</v>
       </c>
       <c r="H81" s="3">
-        <v>-18600</v>
+        <v>-18400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="E83" s="3">
         <v>8400</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-616800</v>
+        <v>-611300</v>
       </c>
       <c r="E89" s="3">
-        <v>88900</v>
+        <v>88100</v>
       </c>
       <c r="F89" s="3">
-        <v>189400</v>
+        <v>187700</v>
       </c>
       <c r="G89" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="H89" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40100</v>
+        <v>-39800</v>
       </c>
       <c r="E91" s="3">
-        <v>-52800</v>
+        <v>-52300</v>
       </c>
       <c r="F91" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="G91" s="3">
         <v>-1800</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>709200</v>
+        <v>702800</v>
       </c>
       <c r="E94" s="3">
-        <v>-824700</v>
+        <v>-817200</v>
       </c>
       <c r="F94" s="3">
-        <v>-369100</v>
+        <v>-365700</v>
       </c>
       <c r="G94" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="H94" s="3">
         <v>-1500</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="E100" s="3">
-        <v>776900</v>
+        <v>769900</v>
       </c>
       <c r="F100" s="3">
-        <v>183600</v>
+        <v>182000</v>
       </c>
       <c r="G100" s="3">
         <v>-4300</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79900</v>
+        <v>79100</v>
       </c>
       <c r="E102" s="3">
-        <v>41400</v>
+        <v>41100</v>
       </c>
       <c r="F102" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>958200</v>
+        <v>913400</v>
       </c>
       <c r="E8" s="3">
-        <v>1040400</v>
+        <v>991800</v>
       </c>
       <c r="F8" s="3">
-        <v>308800</v>
+        <v>294400</v>
       </c>
       <c r="G8" s="3">
-        <v>58000</v>
+        <v>55300</v>
       </c>
       <c r="H8" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>350100</v>
+        <v>333700</v>
       </c>
       <c r="E9" s="3">
-        <v>257400</v>
+        <v>245300</v>
       </c>
       <c r="F9" s="3">
-        <v>78300</v>
+        <v>74600</v>
       </c>
       <c r="G9" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="H9" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>608100</v>
+        <v>579600</v>
       </c>
       <c r="E10" s="3">
-        <v>783000</v>
+        <v>746400</v>
       </c>
       <c r="F10" s="3">
-        <v>230600</v>
+        <v>219800</v>
       </c>
       <c r="G10" s="3">
-        <v>37200</v>
+        <v>35400</v>
       </c>
       <c r="H10" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -819,19 +819,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>183000</v>
+        <v>174400</v>
       </c>
       <c r="E12" s="3">
-        <v>107300</v>
+        <v>102200</v>
       </c>
       <c r="F12" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="G12" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="H12" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>-37400</v>
+        <v>-35700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1422600</v>
+        <v>1356100</v>
       </c>
       <c r="E17" s="3">
-        <v>1259300</v>
+        <v>1200400</v>
       </c>
       <c r="F17" s="3">
-        <v>277300</v>
+        <v>264400</v>
       </c>
       <c r="G17" s="3">
-        <v>55200</v>
+        <v>52600</v>
       </c>
       <c r="H17" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-464400</v>
+        <v>-442700</v>
       </c>
       <c r="E18" s="3">
-        <v>-218800</v>
+        <v>-208600</v>
       </c>
       <c r="F18" s="3">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H18" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>16400</v>
       </c>
       <c r="E20" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="F20" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-430800</v>
+        <v>-410700</v>
       </c>
       <c r="E21" s="3">
-        <v>-200100</v>
+        <v>-190800</v>
       </c>
       <c r="F21" s="3">
-        <v>37100</v>
+        <v>35400</v>
       </c>
       <c r="G21" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H21" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-447200</v>
+        <v>-426300</v>
       </c>
       <c r="E23" s="3">
-        <v>-208500</v>
+        <v>-198700</v>
       </c>
       <c r="F23" s="3">
-        <v>35400</v>
+        <v>33700</v>
       </c>
       <c r="G23" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H23" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="E24" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="F24" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-453200</v>
+        <v>-432000</v>
       </c>
       <c r="E26" s="3">
-        <v>-203400</v>
+        <v>-193900</v>
       </c>
       <c r="F26" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="G26" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H26" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-453200</v>
+        <v>-432000</v>
       </c>
       <c r="E27" s="3">
-        <v>-203400</v>
+        <v>-193900</v>
       </c>
       <c r="F27" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="G27" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H27" s="3">
-        <v>-18400</v>
+        <v>-17500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-16400</v>
       </c>
       <c r="E32" s="3">
-        <v>-10400</v>
+        <v>-9900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-453200</v>
+        <v>-432000</v>
       </c>
       <c r="E33" s="3">
-        <v>-203400</v>
+        <v>-193900</v>
       </c>
       <c r="F33" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="G33" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H33" s="3">
-        <v>-18400</v>
+        <v>-17500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-453200</v>
+        <v>-432000</v>
       </c>
       <c r="E35" s="3">
-        <v>-203400</v>
+        <v>-193900</v>
       </c>
       <c r="F35" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="G35" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H35" s="3">
-        <v>-18400</v>
+        <v>-17500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>106400</v>
+        <v>101500</v>
       </c>
       <c r="E41" s="3">
-        <v>51900</v>
+        <v>49400</v>
       </c>
       <c r="F41" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="G41" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H41" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>405100</v>
+        <v>386100</v>
       </c>
       <c r="E42" s="3">
-        <v>1070600</v>
+        <v>1020500</v>
       </c>
       <c r="F42" s="3">
-        <v>215200</v>
+        <v>205100</v>
       </c>
       <c r="G42" s="3">
-        <v>28900</v>
+        <v>27600</v>
       </c>
       <c r="H42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E43" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="F43" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="G43" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H43" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E44" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53800</v>
+        <v>51300</v>
       </c>
       <c r="E45" s="3">
-        <v>96900</v>
+        <v>92400</v>
       </c>
       <c r="F45" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>574900</v>
+        <v>548000</v>
       </c>
       <c r="E46" s="3">
-        <v>1235000</v>
+        <v>1177200</v>
       </c>
       <c r="F46" s="3">
-        <v>264200</v>
+        <v>251800</v>
       </c>
       <c r="G46" s="3">
-        <v>41000</v>
+        <v>39100</v>
       </c>
       <c r="H46" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1750,13 +1750,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>77500</v>
+        <v>73900</v>
       </c>
       <c r="F47" s="3">
-        <v>173500</v>
+        <v>165400</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
         <v>1100</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>151000</v>
+        <v>143900</v>
       </c>
       <c r="E48" s="3">
-        <v>220600</v>
+        <v>210300</v>
       </c>
       <c r="F48" s="3">
-        <v>50600</v>
+        <v>48300</v>
       </c>
       <c r="G48" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -1810,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G52" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H52" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>733800</v>
+        <v>699400</v>
       </c>
       <c r="E54" s="3">
-        <v>1560400</v>
+        <v>1487500</v>
       </c>
       <c r="F54" s="3">
-        <v>495700</v>
+        <v>472500</v>
       </c>
       <c r="G54" s="3">
-        <v>49400</v>
+        <v>47100</v>
       </c>
       <c r="H54" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257100</v>
+        <v>245000</v>
       </c>
       <c r="E59" s="3">
-        <v>612900</v>
+        <v>584300</v>
       </c>
       <c r="F59" s="3">
-        <v>239100</v>
+        <v>227900</v>
       </c>
       <c r="G59" s="3">
-        <v>52000</v>
+        <v>49500</v>
       </c>
       <c r="H59" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>257100</v>
+        <v>245000</v>
       </c>
       <c r="E60" s="3">
-        <v>612900</v>
+        <v>584300</v>
       </c>
       <c r="F60" s="3">
-        <v>239100</v>
+        <v>227900</v>
       </c>
       <c r="G60" s="3">
-        <v>52000</v>
+        <v>49500</v>
       </c>
       <c r="H60" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56000</v>
+        <v>53400</v>
       </c>
       <c r="E62" s="3">
-        <v>110800</v>
+        <v>105600</v>
       </c>
       <c r="F62" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="G62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>313000</v>
+        <v>298400</v>
       </c>
       <c r="E66" s="3">
-        <v>723700</v>
+        <v>689900</v>
       </c>
       <c r="F66" s="3">
-        <v>268300</v>
+        <v>255700</v>
       </c>
       <c r="G66" s="3">
-        <v>53300</v>
+        <v>50800</v>
       </c>
       <c r="H66" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="H70" s="3">
-        <v>62400</v>
+        <v>59500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-696500</v>
+        <v>-663900</v>
       </c>
       <c r="E72" s="3">
-        <v>-243300</v>
+        <v>-231900</v>
       </c>
       <c r="F72" s="3">
-        <v>-39900</v>
+        <v>-38000</v>
       </c>
       <c r="G72" s="3">
-        <v>-72100</v>
+        <v>-68700</v>
       </c>
       <c r="H72" s="3">
-        <v>-70200</v>
+        <v>-66900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>420700</v>
+        <v>401000</v>
       </c>
       <c r="E76" s="3">
-        <v>836700</v>
+        <v>797600</v>
       </c>
       <c r="F76" s="3">
-        <v>227400</v>
+        <v>216800</v>
       </c>
       <c r="G76" s="3">
-        <v>-72000</v>
+        <v>-68600</v>
       </c>
       <c r="H76" s="3">
-        <v>-70000</v>
+        <v>-66800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-453200</v>
+        <v>-432000</v>
       </c>
       <c r="E81" s="3">
-        <v>-203400</v>
+        <v>-193900</v>
       </c>
       <c r="F81" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="G81" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H81" s="3">
-        <v>-18400</v>
+        <v>-17500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="E83" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-611300</v>
+        <v>-582700</v>
       </c>
       <c r="E89" s="3">
-        <v>88100</v>
+        <v>84000</v>
       </c>
       <c r="F89" s="3">
-        <v>187700</v>
+        <v>178900</v>
       </c>
       <c r="G89" s="3">
-        <v>35300</v>
+        <v>33700</v>
       </c>
       <c r="H89" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39800</v>
+        <v>-37900</v>
       </c>
       <c r="E91" s="3">
-        <v>-52300</v>
+        <v>-49900</v>
       </c>
       <c r="F91" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>702800</v>
+        <v>669900</v>
       </c>
       <c r="E94" s="3">
-        <v>-817200</v>
+        <v>-779000</v>
       </c>
       <c r="F94" s="3">
-        <v>-365700</v>
+        <v>-348600</v>
       </c>
       <c r="G94" s="3">
-        <v>-29000</v>
+        <v>-27700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="E100" s="3">
-        <v>769900</v>
+        <v>733900</v>
       </c>
       <c r="F100" s="3">
-        <v>182000</v>
+        <v>173500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H100" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79100</v>
+        <v>75400</v>
       </c>
       <c r="E102" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="F102" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G102" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>913400</v>
+        <v>358800</v>
       </c>
       <c r="E8" s="3">
-        <v>991800</v>
+        <v>942400</v>
       </c>
       <c r="F8" s="3">
-        <v>294400</v>
+        <v>1023300</v>
       </c>
       <c r="G8" s="3">
-        <v>55300</v>
+        <v>303700</v>
       </c>
       <c r="H8" s="3">
-        <v>13600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>333700</v>
+        <v>100700</v>
       </c>
       <c r="E9" s="3">
-        <v>245300</v>
+        <v>344300</v>
       </c>
       <c r="F9" s="3">
-        <v>74600</v>
+        <v>253100</v>
       </c>
       <c r="G9" s="3">
-        <v>19900</v>
+        <v>77000</v>
       </c>
       <c r="H9" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>579600</v>
+        <v>258100</v>
       </c>
       <c r="E10" s="3">
-        <v>746400</v>
+        <v>598100</v>
       </c>
       <c r="F10" s="3">
-        <v>219800</v>
+        <v>770100</v>
       </c>
       <c r="G10" s="3">
-        <v>35400</v>
+        <v>226800</v>
       </c>
       <c r="H10" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>36600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,28 +825,29 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>174400</v>
+        <v>63900</v>
       </c>
       <c r="E12" s="3">
-        <v>102200</v>
+        <v>179900</v>
       </c>
       <c r="F12" s="3">
-        <v>29500</v>
+        <v>105500</v>
       </c>
       <c r="G12" s="3">
-        <v>10300</v>
+        <v>30500</v>
       </c>
       <c r="H12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,29 +888,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>13800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1356100</v>
+        <v>375700</v>
       </c>
       <c r="E17" s="3">
-        <v>1200400</v>
+        <v>1399200</v>
       </c>
       <c r="F17" s="3">
-        <v>264400</v>
+        <v>1238500</v>
       </c>
       <c r="G17" s="3">
-        <v>52600</v>
+        <v>272800</v>
       </c>
       <c r="H17" s="3">
-        <v>26600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>54300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>27400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-442700</v>
+        <v>-17000</v>
       </c>
       <c r="E18" s="3">
-        <v>-208600</v>
+        <v>-456800</v>
       </c>
       <c r="F18" s="3">
-        <v>30000</v>
+        <v>-215200</v>
       </c>
       <c r="G18" s="3">
-        <v>2700</v>
+        <v>31000</v>
       </c>
       <c r="H18" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-13400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16400</v>
+        <v>16600</v>
       </c>
       <c r="E20" s="3">
-        <v>9900</v>
+        <v>17000</v>
       </c>
       <c r="F20" s="3">
-        <v>3700</v>
+        <v>10200</v>
       </c>
       <c r="G20" s="3">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>300</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,29 +1080,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-410700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-190800</v>
+        <v>-423600</v>
       </c>
       <c r="F21" s="3">
-        <v>35400</v>
+        <v>-196800</v>
       </c>
       <c r="G21" s="3">
-        <v>3600</v>
+        <v>36500</v>
       </c>
       <c r="H21" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>3700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-12400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-426300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-198700</v>
+        <v>-439800</v>
       </c>
       <c r="F23" s="3">
-        <v>33700</v>
+        <v>-205000</v>
       </c>
       <c r="G23" s="3">
-        <v>3000</v>
+        <v>34800</v>
       </c>
       <c r="H23" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-13100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5700</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
-        <v>-4800</v>
+        <v>5900</v>
       </c>
       <c r="F24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>-700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-432000</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-193900</v>
+        <v>-445700</v>
       </c>
       <c r="F26" s="3">
-        <v>31400</v>
+        <v>-200100</v>
       </c>
       <c r="G26" s="3">
-        <v>2600</v>
+        <v>32400</v>
       </c>
       <c r="H26" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-12500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-432000</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="3">
-        <v>-193900</v>
+        <v>-445700</v>
       </c>
       <c r="F27" s="3">
-        <v>26200</v>
+        <v>-200100</v>
       </c>
       <c r="G27" s="3">
-        <v>-2700</v>
+        <v>27000</v>
       </c>
       <c r="H27" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-2800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-18100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9900</v>
+        <v>-17000</v>
       </c>
       <c r="F32" s="3">
-        <v>-3700</v>
+        <v>-10200</v>
       </c>
       <c r="G32" s="3">
-        <v>-300</v>
+        <v>-3800</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-300</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-432000</v>
+        <v>1900</v>
       </c>
       <c r="E33" s="3">
-        <v>-193900</v>
+        <v>-445700</v>
       </c>
       <c r="F33" s="3">
-        <v>26200</v>
+        <v>-200100</v>
       </c>
       <c r="G33" s="3">
-        <v>-2700</v>
+        <v>27000</v>
       </c>
       <c r="H33" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-2800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-18100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-432000</v>
+        <v>1900</v>
       </c>
       <c r="E35" s="3">
-        <v>-193900</v>
+        <v>-445700</v>
       </c>
       <c r="F35" s="3">
-        <v>26200</v>
+        <v>-200100</v>
       </c>
       <c r="G35" s="3">
-        <v>-2700</v>
+        <v>27000</v>
       </c>
       <c r="H35" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-2800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-18100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,28 +1646,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101500</v>
+        <v>117800</v>
       </c>
       <c r="E41" s="3">
-        <v>49400</v>
+        <v>104700</v>
       </c>
       <c r="F41" s="3">
-        <v>10300</v>
+        <v>51000</v>
       </c>
       <c r="G41" s="3">
-        <v>4600</v>
+        <v>10600</v>
       </c>
       <c r="H41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1590,59 +1676,65 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>386100</v>
+        <v>419900</v>
       </c>
       <c r="E42" s="3">
-        <v>1020500</v>
+        <v>398400</v>
       </c>
       <c r="F42" s="3">
-        <v>205100</v>
+        <v>1052900</v>
       </c>
       <c r="G42" s="3">
-        <v>27600</v>
+        <v>211600</v>
       </c>
       <c r="H42" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>7000</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>8200</v>
+        <v>7200</v>
       </c>
       <c r="F43" s="3">
-        <v>9800</v>
+        <v>8500</v>
       </c>
       <c r="G43" s="3">
-        <v>3500</v>
+        <v>10100</v>
       </c>
       <c r="H43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1650,20 +1742,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>6900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1680,59 +1775,65 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51300</v>
+        <v>57400</v>
       </c>
       <c r="E45" s="3">
-        <v>92400</v>
+        <v>52900</v>
       </c>
       <c r="F45" s="3">
-        <v>26600</v>
+        <v>95300</v>
       </c>
       <c r="G45" s="3">
-        <v>3400</v>
+        <v>27400</v>
       </c>
       <c r="H45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>548000</v>
+        <v>598400</v>
       </c>
       <c r="E46" s="3">
-        <v>1177200</v>
+        <v>565400</v>
       </c>
       <c r="F46" s="3">
-        <v>251800</v>
+        <v>1214600</v>
       </c>
       <c r="G46" s="3">
-        <v>39100</v>
+        <v>259800</v>
       </c>
       <c r="H46" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>40300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>7500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1740,89 +1841,98 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>73900</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>165400</v>
+        <v>76200</v>
       </c>
       <c r="G47" s="3">
+        <v>170700</v>
+      </c>
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>143900</v>
+        <v>91300</v>
       </c>
       <c r="E48" s="3">
-        <v>210300</v>
+        <v>148500</v>
       </c>
       <c r="F48" s="3">
-        <v>48300</v>
+        <v>217000</v>
       </c>
       <c r="G48" s="3">
-        <v>2300</v>
+        <v>49800</v>
       </c>
       <c r="H48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
-        <v>11900</v>
-      </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>12300</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,29 +2006,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>10600</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>7700</v>
       </c>
       <c r="F52" s="3">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>7200</v>
       </c>
       <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>5200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,29 +2072,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>699400</v>
+        <v>700300</v>
       </c>
       <c r="E54" s="3">
-        <v>1487500</v>
+        <v>721600</v>
       </c>
       <c r="F54" s="3">
-        <v>472500</v>
+        <v>1534700</v>
       </c>
       <c r="G54" s="3">
-        <v>47100</v>
+        <v>487500</v>
       </c>
       <c r="H54" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>48600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>14800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2138,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,9 +2168,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,29 +2201,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>245000</v>
+        <v>231100</v>
       </c>
       <c r="E59" s="3">
-        <v>584300</v>
+        <v>252800</v>
       </c>
       <c r="F59" s="3">
-        <v>227900</v>
+        <v>602800</v>
       </c>
       <c r="G59" s="3">
-        <v>49500</v>
+        <v>235100</v>
       </c>
       <c r="H59" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>51100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>22300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2098,29 +2234,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245000</v>
+        <v>231100</v>
       </c>
       <c r="E60" s="3">
-        <v>584300</v>
+        <v>252800</v>
       </c>
       <c r="F60" s="3">
-        <v>227900</v>
+        <v>602800</v>
       </c>
       <c r="G60" s="3">
-        <v>49500</v>
+        <v>235100</v>
       </c>
       <c r="H60" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>51100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>22300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53400</v>
+        <v>24600</v>
       </c>
       <c r="E62" s="3">
-        <v>105600</v>
+        <v>55100</v>
       </c>
       <c r="F62" s="3">
-        <v>27800</v>
+        <v>108900</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>28700</v>
       </c>
       <c r="H62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,29 +2432,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>298400</v>
+        <v>255700</v>
       </c>
       <c r="E66" s="3">
-        <v>689900</v>
+        <v>307900</v>
       </c>
       <c r="F66" s="3">
-        <v>255700</v>
+        <v>711800</v>
       </c>
       <c r="G66" s="3">
-        <v>50800</v>
+        <v>263900</v>
       </c>
       <c r="H66" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>52400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>22300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2398,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>64900</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>59500</v>
+        <v>66900</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>61300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,29 +2612,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-663900</v>
+        <v>-683100</v>
       </c>
       <c r="E72" s="3">
-        <v>-231900</v>
+        <v>-685000</v>
       </c>
       <c r="F72" s="3">
-        <v>-38000</v>
+        <v>-239200</v>
       </c>
       <c r="G72" s="3">
-        <v>-68700</v>
+        <v>-39200</v>
       </c>
       <c r="H72" s="3">
-        <v>-66900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-70900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-69000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,29 +2744,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>401000</v>
+        <v>444600</v>
       </c>
       <c r="E76" s="3">
-        <v>797600</v>
+        <v>413800</v>
       </c>
       <c r="F76" s="3">
-        <v>216800</v>
+        <v>822900</v>
       </c>
       <c r="G76" s="3">
-        <v>-68600</v>
+        <v>223700</v>
       </c>
       <c r="H76" s="3">
-        <v>-66800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-70700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-68800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-432000</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="3">
-        <v>-193900</v>
+        <v>-445700</v>
       </c>
       <c r="F81" s="3">
-        <v>26200</v>
+        <v>-200100</v>
       </c>
       <c r="G81" s="3">
-        <v>-2700</v>
+        <v>27000</v>
       </c>
       <c r="H81" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-2800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-18100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>15700</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>8000</v>
+        <v>16200</v>
       </c>
       <c r="F83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-582700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>84000</v>
+        <v>-601200</v>
       </c>
       <c r="F89" s="3">
-        <v>178900</v>
+        <v>86600</v>
       </c>
       <c r="G89" s="3">
-        <v>33700</v>
+        <v>184600</v>
       </c>
       <c r="H89" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>34700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-7100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-37900</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-49900</v>
+        <v>-39100</v>
       </c>
       <c r="F91" s="3">
-        <v>-8500</v>
+        <v>-51500</v>
       </c>
       <c r="G91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>669900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-779000</v>
+        <v>691200</v>
       </c>
       <c r="F94" s="3">
-        <v>-348600</v>
+        <v>-803700</v>
       </c>
       <c r="G94" s="3">
-        <v>-27700</v>
+        <v>-359700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-28500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,29 +3421,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-14000</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>733900</v>
+        <v>-14500</v>
       </c>
       <c r="F100" s="3">
-        <v>173500</v>
+        <v>757200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4100</v>
+        <v>179000</v>
       </c>
       <c r="H100" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>-4200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>8100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3209,29 +3454,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>2200</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3239,37 +3487,43 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>75400</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>39200</v>
+        <v>77800</v>
       </c>
       <c r="F102" s="3">
-        <v>5700</v>
+        <v>40400</v>
       </c>
       <c r="G102" s="3">
-        <v>1900</v>
+        <v>5800</v>
       </c>
       <c r="H102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>358800</v>
+        <v>355100</v>
       </c>
       <c r="E8" s="3">
-        <v>942400</v>
+        <v>932800</v>
       </c>
       <c r="F8" s="3">
-        <v>1023300</v>
+        <v>1012800</v>
       </c>
       <c r="G8" s="3">
-        <v>303700</v>
+        <v>300600</v>
       </c>
       <c r="H8" s="3">
-        <v>57100</v>
+        <v>56500</v>
       </c>
       <c r="I8" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100700</v>
+        <v>99700</v>
       </c>
       <c r="E9" s="3">
-        <v>344300</v>
+        <v>340800</v>
       </c>
       <c r="F9" s="3">
-        <v>253100</v>
+        <v>250500</v>
       </c>
       <c r="G9" s="3">
-        <v>77000</v>
+        <v>76200</v>
       </c>
       <c r="H9" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="I9" s="3">
         <v>3600</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>258100</v>
+        <v>255500</v>
       </c>
       <c r="E10" s="3">
-        <v>598100</v>
+        <v>591900</v>
       </c>
       <c r="F10" s="3">
-        <v>770100</v>
+        <v>762200</v>
       </c>
       <c r="G10" s="3">
-        <v>226800</v>
+        <v>224400</v>
       </c>
       <c r="H10" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="I10" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="E12" s="3">
-        <v>179900</v>
+        <v>178100</v>
       </c>
       <c r="F12" s="3">
-        <v>105500</v>
+        <v>104400</v>
       </c>
       <c r="G12" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="H12" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I12" s="3">
         <v>7500</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="F14" s="3">
-        <v>-36800</v>
+        <v>-36400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>375700</v>
+        <v>371900</v>
       </c>
       <c r="E17" s="3">
-        <v>1399200</v>
+        <v>1384800</v>
       </c>
       <c r="F17" s="3">
-        <v>1238500</v>
+        <v>1225800</v>
       </c>
       <c r="G17" s="3">
-        <v>272800</v>
+        <v>270000</v>
       </c>
       <c r="H17" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="I17" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="E18" s="3">
-        <v>-456800</v>
+        <v>-452100</v>
       </c>
       <c r="F18" s="3">
-        <v>-215200</v>
+        <v>-213000</v>
       </c>
       <c r="G18" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="H18" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I18" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="E20" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="F20" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G20" s="3">
         <v>3800</v>
@@ -1089,23 +1089,23 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>9800</v>
       </c>
       <c r="E21" s="3">
-        <v>-423600</v>
+        <v>-419200</v>
       </c>
       <c r="F21" s="3">
-        <v>-196800</v>
+        <v>-194800</v>
       </c>
       <c r="G21" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="H21" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I21" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1159,19 +1159,19 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-439800</v>
+        <v>-435300</v>
       </c>
       <c r="F23" s="3">
-        <v>-205000</v>
+        <v>-202900</v>
       </c>
       <c r="G23" s="3">
-        <v>34800</v>
+        <v>34400</v>
       </c>
       <c r="H23" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E24" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F24" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G24" s="3">
         <v>2400</v>
@@ -1258,19 +1258,19 @@
         <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-445700</v>
+        <v>-441100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200100</v>
+        <v>-198000</v>
       </c>
       <c r="G26" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="H26" s="3">
         <v>2700</v>
       </c>
       <c r="I26" s="3">
-        <v>-12500</v>
+        <v>-12300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1291,19 +1291,19 @@
         <v>1900</v>
       </c>
       <c r="E27" s="3">
-        <v>-445700</v>
+        <v>-441200</v>
       </c>
       <c r="F27" s="3">
-        <v>-200100</v>
+        <v>-198000</v>
       </c>
       <c r="G27" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="H27" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I27" s="3">
-        <v>-18100</v>
+        <v>-17900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="E32" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="F32" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="G32" s="3">
         <v>-3800</v>
@@ -1489,19 +1489,19 @@
         <v>1900</v>
       </c>
       <c r="E33" s="3">
-        <v>-445700</v>
+        <v>-441200</v>
       </c>
       <c r="F33" s="3">
-        <v>-200100</v>
+        <v>-198000</v>
       </c>
       <c r="G33" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="H33" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I33" s="3">
-        <v>-18100</v>
+        <v>-17900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1555,19 +1555,19 @@
         <v>1900</v>
       </c>
       <c r="E35" s="3">
-        <v>-445700</v>
+        <v>-441200</v>
       </c>
       <c r="F35" s="3">
-        <v>-200100</v>
+        <v>-198000</v>
       </c>
       <c r="G35" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="H35" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I35" s="3">
-        <v>-18100</v>
+        <v>-17900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E41" s="3">
-        <v>104700</v>
+        <v>103600</v>
       </c>
       <c r="F41" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="G41" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="H41" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I41" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>419900</v>
+        <v>415600</v>
       </c>
       <c r="E42" s="3">
-        <v>398400</v>
+        <v>394300</v>
       </c>
       <c r="F42" s="3">
-        <v>1052900</v>
+        <v>1042100</v>
       </c>
       <c r="G42" s="3">
-        <v>211600</v>
+        <v>209500</v>
       </c>
       <c r="H42" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="I42" s="3">
         <v>1100</v>
@@ -1718,17 +1718,17 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>31600</v>
       </c>
       <c r="E43" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F43" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="G43" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
         <v>3600</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="3">
         <v>2200</v>
       </c>
       <c r="F44" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57400</v>
+        <v>25200</v>
       </c>
       <c r="E45" s="3">
-        <v>52900</v>
+        <v>52400</v>
       </c>
       <c r="F45" s="3">
-        <v>95300</v>
+        <v>94300</v>
       </c>
       <c r="G45" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="H45" s="3">
         <v>3500</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>598400</v>
+        <v>592300</v>
       </c>
       <c r="E46" s="3">
-        <v>565400</v>
+        <v>559600</v>
       </c>
       <c r="F46" s="3">
-        <v>1214600</v>
+        <v>1202200</v>
       </c>
       <c r="G46" s="3">
-        <v>259800</v>
+        <v>257100</v>
       </c>
       <c r="H46" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="I46" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>76200</v>
+        <v>75400</v>
       </c>
       <c r="G47" s="3">
-        <v>170700</v>
+        <v>168900</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91300</v>
+        <v>90400</v>
       </c>
       <c r="E48" s="3">
-        <v>148500</v>
+        <v>147000</v>
       </c>
       <c r="F48" s="3">
-        <v>217000</v>
+        <v>214800</v>
       </c>
       <c r="G48" s="3">
-        <v>49800</v>
+        <v>49300</v>
       </c>
       <c r="H48" s="3">
         <v>2400</v>
@@ -1916,14 +1916,14 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10600</v>
+        <v>7800</v>
       </c>
       <c r="E52" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F52" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="G52" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H52" s="3">
         <v>5000</v>
       </c>
       <c r="I52" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700300</v>
+        <v>693100</v>
       </c>
       <c r="E54" s="3">
-        <v>721600</v>
+        <v>714300</v>
       </c>
       <c r="F54" s="3">
-        <v>1534700</v>
+        <v>1519000</v>
       </c>
       <c r="G54" s="3">
-        <v>487500</v>
+        <v>482500</v>
       </c>
       <c r="H54" s="3">
-        <v>48600</v>
+        <v>48100</v>
       </c>
       <c r="I54" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>231100</v>
+        <v>228800</v>
       </c>
       <c r="E59" s="3">
-        <v>252800</v>
+        <v>250200</v>
       </c>
       <c r="F59" s="3">
-        <v>602800</v>
+        <v>596700</v>
       </c>
       <c r="G59" s="3">
-        <v>235100</v>
+        <v>232700</v>
       </c>
       <c r="H59" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="I59" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>231100</v>
+        <v>228800</v>
       </c>
       <c r="E60" s="3">
-        <v>252800</v>
+        <v>250200</v>
       </c>
       <c r="F60" s="3">
-        <v>602800</v>
+        <v>596700</v>
       </c>
       <c r="G60" s="3">
-        <v>235100</v>
+        <v>232700</v>
       </c>
       <c r="H60" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="I60" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="E62" s="3">
-        <v>55100</v>
+        <v>54500</v>
       </c>
       <c r="F62" s="3">
-        <v>108900</v>
+        <v>107800</v>
       </c>
       <c r="G62" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="H62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>255700</v>
+        <v>253100</v>
       </c>
       <c r="E66" s="3">
-        <v>307900</v>
+        <v>304700</v>
       </c>
       <c r="F66" s="3">
-        <v>711800</v>
+        <v>704500</v>
       </c>
       <c r="G66" s="3">
-        <v>263900</v>
+        <v>261200</v>
       </c>
       <c r="H66" s="3">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="I66" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>66900</v>
+        <v>66300</v>
       </c>
       <c r="I70" s="3">
-        <v>61300</v>
+        <v>60700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-683100</v>
+        <v>-676100</v>
       </c>
       <c r="E72" s="3">
-        <v>-685000</v>
+        <v>-678000</v>
       </c>
       <c r="F72" s="3">
-        <v>-239200</v>
+        <v>-236800</v>
       </c>
       <c r="G72" s="3">
-        <v>-39200</v>
+        <v>-38800</v>
       </c>
       <c r="H72" s="3">
-        <v>-70900</v>
+        <v>-70200</v>
       </c>
       <c r="I72" s="3">
-        <v>-69000</v>
+        <v>-68300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>444600</v>
+        <v>440100</v>
       </c>
       <c r="E76" s="3">
-        <v>413800</v>
+        <v>409500</v>
       </c>
       <c r="F76" s="3">
-        <v>822900</v>
+        <v>814500</v>
       </c>
       <c r="G76" s="3">
-        <v>223700</v>
+        <v>221400</v>
       </c>
       <c r="H76" s="3">
-        <v>-70700</v>
+        <v>-70100</v>
       </c>
       <c r="I76" s="3">
-        <v>-68800</v>
+        <v>-68100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2861,19 +2861,19 @@
         <v>1900</v>
       </c>
       <c r="E81" s="3">
-        <v>-445700</v>
+        <v>-441200</v>
       </c>
       <c r="F81" s="3">
-        <v>-200100</v>
+        <v>-198000</v>
       </c>
       <c r="G81" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="H81" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I81" s="3">
-        <v>-18100</v>
+        <v>-17900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2905,14 +2905,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>10100</v>
       </c>
       <c r="E83" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="F83" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -3103,20 +3103,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>7800</v>
       </c>
       <c r="E89" s="3">
-        <v>-601200</v>
+        <v>-595000</v>
       </c>
       <c r="F89" s="3">
-        <v>86600</v>
+        <v>85800</v>
       </c>
       <c r="G89" s="3">
-        <v>184600</v>
+        <v>182700</v>
       </c>
       <c r="H89" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="I89" s="3">
         <v>-7100</v>
@@ -3151,17 +3151,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-4800</v>
       </c>
       <c r="E91" s="3">
-        <v>-39100</v>
+        <v>-38700</v>
       </c>
       <c r="F91" s="3">
-        <v>-51500</v>
+        <v>-50900</v>
       </c>
       <c r="G91" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="H91" s="3">
         <v>-1700</v>
@@ -3250,23 +3250,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-22500</v>
       </c>
       <c r="E94" s="3">
-        <v>691200</v>
+        <v>684100</v>
       </c>
       <c r="F94" s="3">
-        <v>-803700</v>
+        <v>-795500</v>
       </c>
       <c r="G94" s="3">
-        <v>-359700</v>
+        <v>-356000</v>
       </c>
       <c r="H94" s="3">
-        <v>-28500</v>
+        <v>-28200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3430,23 +3430,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-14500</v>
+        <v>-14300</v>
       </c>
       <c r="F100" s="3">
-        <v>757200</v>
+        <v>749400</v>
       </c>
       <c r="G100" s="3">
-        <v>179000</v>
+        <v>177100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I100" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3463,11 +3463,11 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>3800</v>
       </c>
       <c r="E101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
         <v>300</v>
@@ -3496,14 +3496,14 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-11000</v>
       </c>
       <c r="E102" s="3">
-        <v>77800</v>
+        <v>77000</v>
       </c>
       <c r="F102" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="3">
         <v>5800</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>355100</v>
+        <v>344200</v>
       </c>
       <c r="E8" s="3">
-        <v>932800</v>
+        <v>904100</v>
       </c>
       <c r="F8" s="3">
-        <v>1012800</v>
+        <v>981600</v>
       </c>
       <c r="G8" s="3">
-        <v>300600</v>
+        <v>291400</v>
       </c>
       <c r="H8" s="3">
-        <v>56500</v>
+        <v>54700</v>
       </c>
       <c r="I8" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>99700</v>
+        <v>96600</v>
       </c>
       <c r="E9" s="3">
-        <v>340800</v>
+        <v>330300</v>
       </c>
       <c r="F9" s="3">
-        <v>250500</v>
+        <v>242800</v>
       </c>
       <c r="G9" s="3">
-        <v>76200</v>
+        <v>73800</v>
       </c>
       <c r="H9" s="3">
-        <v>20300</v>
+        <v>19700</v>
       </c>
       <c r="I9" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>255500</v>
+        <v>247600</v>
       </c>
       <c r="E10" s="3">
-        <v>591900</v>
+        <v>573700</v>
       </c>
       <c r="F10" s="3">
-        <v>762200</v>
+        <v>738800</v>
       </c>
       <c r="G10" s="3">
-        <v>224400</v>
+        <v>217500</v>
       </c>
       <c r="H10" s="3">
-        <v>36200</v>
+        <v>35100</v>
       </c>
       <c r="I10" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -832,22 +832,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>63300</v>
+        <v>61300</v>
       </c>
       <c r="E12" s="3">
-        <v>178100</v>
+        <v>172600</v>
       </c>
       <c r="F12" s="3">
-        <v>104400</v>
+        <v>101200</v>
       </c>
       <c r="G12" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="H12" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="I12" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F14" s="3">
-        <v>-36400</v>
+        <v>-35300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>371900</v>
+        <v>360500</v>
       </c>
       <c r="E17" s="3">
-        <v>1384800</v>
+        <v>1342300</v>
       </c>
       <c r="F17" s="3">
-        <v>1225800</v>
+        <v>1188100</v>
       </c>
       <c r="G17" s="3">
-        <v>270000</v>
+        <v>261700</v>
       </c>
       <c r="H17" s="3">
-        <v>53800</v>
+        <v>52100</v>
       </c>
       <c r="I17" s="3">
-        <v>27200</v>
+        <v>26300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16800</v>
+        <v>-16300</v>
       </c>
       <c r="E18" s="3">
-        <v>-452100</v>
+        <v>-438200</v>
       </c>
       <c r="F18" s="3">
-        <v>-213000</v>
+        <v>-206500</v>
       </c>
       <c r="G18" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="H18" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I18" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="E20" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="F20" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="G20" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="E21" s="3">
-        <v>-419200</v>
+        <v>-406400</v>
       </c>
       <c r="F21" s="3">
-        <v>-194800</v>
+        <v>-188800</v>
       </c>
       <c r="G21" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="H21" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I21" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-435300</v>
+        <v>-421900</v>
       </c>
       <c r="F23" s="3">
-        <v>-202900</v>
+        <v>-196700</v>
       </c>
       <c r="G23" s="3">
-        <v>34400</v>
+        <v>33400</v>
       </c>
       <c r="H23" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I23" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1192,19 +1192,19 @@
         <v>-2200</v>
       </c>
       <c r="E24" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G24" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-441100</v>
+        <v>-427600</v>
       </c>
       <c r="F26" s="3">
-        <v>-198000</v>
+        <v>-191900</v>
       </c>
       <c r="G26" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="H26" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I26" s="3">
-        <v>-12300</v>
+        <v>-12000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-441200</v>
+        <v>-427600</v>
       </c>
       <c r="F27" s="3">
-        <v>-198000</v>
+        <v>-191900</v>
       </c>
       <c r="G27" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="H27" s="3">
         <v>-2700</v>
       </c>
       <c r="I27" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16400</v>
+        <v>-15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-16800</v>
+        <v>-16300</v>
       </c>
       <c r="F32" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="G32" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-441200</v>
+        <v>-427600</v>
       </c>
       <c r="F33" s="3">
-        <v>-198000</v>
+        <v>-191900</v>
       </c>
       <c r="G33" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="H33" s="3">
         <v>-2700</v>
       </c>
       <c r="I33" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-441200</v>
+        <v>-427600</v>
       </c>
       <c r="F35" s="3">
-        <v>-198000</v>
+        <v>-191900</v>
       </c>
       <c r="G35" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="H35" s="3">
         <v>-2700</v>
       </c>
       <c r="I35" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E41" s="3">
-        <v>103600</v>
+        <v>100400</v>
       </c>
       <c r="F41" s="3">
-        <v>50500</v>
+        <v>48900</v>
       </c>
       <c r="G41" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="H41" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I41" s="3">
         <v>2700</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>415600</v>
+        <v>402800</v>
       </c>
       <c r="E42" s="3">
-        <v>394300</v>
+        <v>382200</v>
       </c>
       <c r="F42" s="3">
-        <v>1042100</v>
+        <v>1010100</v>
       </c>
       <c r="G42" s="3">
-        <v>209500</v>
+        <v>203000</v>
       </c>
       <c r="H42" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="I42" s="3">
         <v>1100</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31600</v>
+        <v>30600</v>
       </c>
       <c r="E43" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="F43" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="H43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I43" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E44" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F44" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25200</v>
+        <v>24500</v>
       </c>
       <c r="E45" s="3">
-        <v>52400</v>
+        <v>50700</v>
       </c>
       <c r="F45" s="3">
-        <v>94300</v>
+        <v>91400</v>
       </c>
       <c r="G45" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="H45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>592300</v>
+        <v>574100</v>
       </c>
       <c r="E46" s="3">
-        <v>559600</v>
+        <v>542400</v>
       </c>
       <c r="F46" s="3">
-        <v>1202200</v>
+        <v>1165200</v>
       </c>
       <c r="G46" s="3">
-        <v>257100</v>
+        <v>249200</v>
       </c>
       <c r="H46" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="I46" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1857,16 +1857,16 @@
         <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>75400</v>
+        <v>73100</v>
       </c>
       <c r="G47" s="3">
-        <v>168900</v>
+        <v>163700</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
       </c>
       <c r="I47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90400</v>
+        <v>87600</v>
       </c>
       <c r="E48" s="3">
-        <v>147000</v>
+        <v>142400</v>
       </c>
       <c r="F48" s="3">
-        <v>214800</v>
+        <v>208200</v>
       </c>
       <c r="G48" s="3">
-        <v>49300</v>
+        <v>47800</v>
       </c>
       <c r="H48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
@@ -1923,7 +1923,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="G52" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="H52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I52" s="3">
         <v>5000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>693100</v>
+        <v>671800</v>
       </c>
       <c r="E54" s="3">
-        <v>714300</v>
+        <v>692300</v>
       </c>
       <c r="F54" s="3">
-        <v>1519000</v>
+        <v>1472300</v>
       </c>
       <c r="G54" s="3">
-        <v>482500</v>
+        <v>467700</v>
       </c>
       <c r="H54" s="3">
-        <v>48100</v>
+        <v>46600</v>
       </c>
       <c r="I54" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>228800</v>
+        <v>221700</v>
       </c>
       <c r="E59" s="3">
-        <v>250200</v>
+        <v>242500</v>
       </c>
       <c r="F59" s="3">
-        <v>596700</v>
+        <v>578300</v>
       </c>
       <c r="G59" s="3">
-        <v>232700</v>
+        <v>225600</v>
       </c>
       <c r="H59" s="3">
-        <v>50600</v>
+        <v>49000</v>
       </c>
       <c r="I59" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228800</v>
+        <v>221700</v>
       </c>
       <c r="E60" s="3">
-        <v>250200</v>
+        <v>242500</v>
       </c>
       <c r="F60" s="3">
-        <v>596700</v>
+        <v>578300</v>
       </c>
       <c r="G60" s="3">
-        <v>232700</v>
+        <v>225600</v>
       </c>
       <c r="H60" s="3">
-        <v>50600</v>
+        <v>49000</v>
       </c>
       <c r="I60" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="E62" s="3">
-        <v>54500</v>
+        <v>52800</v>
       </c>
       <c r="F62" s="3">
-        <v>107800</v>
+        <v>104500</v>
       </c>
       <c r="G62" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>245300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>295400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>682800</v>
+      </c>
+      <c r="G66" s="3">
         <v>253100</v>
       </c>
-      <c r="E66" s="3">
-        <v>304700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>704500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>261200</v>
-      </c>
       <c r="H66" s="3">
-        <v>51800</v>
+        <v>50200</v>
       </c>
       <c r="I66" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>66300</v>
+        <v>64200</v>
       </c>
       <c r="I70" s="3">
-        <v>60700</v>
+        <v>58800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-676100</v>
+        <v>-655300</v>
       </c>
       <c r="E72" s="3">
-        <v>-678000</v>
+        <v>-657100</v>
       </c>
       <c r="F72" s="3">
-        <v>-236800</v>
+        <v>-229500</v>
       </c>
       <c r="G72" s="3">
-        <v>-38800</v>
+        <v>-37600</v>
       </c>
       <c r="H72" s="3">
-        <v>-70200</v>
+        <v>-68000</v>
       </c>
       <c r="I72" s="3">
-        <v>-68300</v>
+        <v>-66200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>440100</v>
+        <v>426500</v>
       </c>
       <c r="E76" s="3">
-        <v>409500</v>
+        <v>396900</v>
       </c>
       <c r="F76" s="3">
-        <v>814500</v>
+        <v>789500</v>
       </c>
       <c r="G76" s="3">
-        <v>221400</v>
+        <v>214600</v>
       </c>
       <c r="H76" s="3">
-        <v>-70100</v>
+        <v>-67800</v>
       </c>
       <c r="I76" s="3">
-        <v>-68100</v>
+        <v>-66000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-441200</v>
+        <v>-427600</v>
       </c>
       <c r="F81" s="3">
-        <v>-198000</v>
+        <v>-191900</v>
       </c>
       <c r="G81" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="H81" s="3">
         <v>-2700</v>
       </c>
       <c r="I81" s="3">
-        <v>-17900</v>
+        <v>-17300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="F83" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="E89" s="3">
-        <v>-595000</v>
+        <v>-576700</v>
       </c>
       <c r="F89" s="3">
-        <v>85800</v>
+        <v>83100</v>
       </c>
       <c r="G89" s="3">
-        <v>182700</v>
+        <v>177100</v>
       </c>
       <c r="H89" s="3">
-        <v>34400</v>
+        <v>33300</v>
       </c>
       <c r="I89" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-38700</v>
+        <v>-37500</v>
       </c>
       <c r="F91" s="3">
-        <v>-50900</v>
+        <v>-49400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="H91" s="3">
         <v>-1700</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22500</v>
+        <v>-21800</v>
       </c>
       <c r="E94" s="3">
-        <v>684100</v>
+        <v>663100</v>
       </c>
       <c r="F94" s="3">
-        <v>-795500</v>
+        <v>-771100</v>
       </c>
       <c r="G94" s="3">
-        <v>-356000</v>
+        <v>-345100</v>
       </c>
       <c r="H94" s="3">
-        <v>-28200</v>
+        <v>-27400</v>
       </c>
       <c r="I94" s="3">
         <v>-1400</v>
@@ -3434,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="F100" s="3">
-        <v>749400</v>
+        <v>726400</v>
       </c>
       <c r="G100" s="3">
-        <v>177100</v>
+        <v>171700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="I100" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E101" s="3">
         <v>2200</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="E102" s="3">
-        <v>77000</v>
+        <v>74700</v>
       </c>
       <c r="F102" s="3">
-        <v>40000</v>
+        <v>38800</v>
       </c>
       <c r="G102" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H102" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GOTU_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>344200</v>
+        <v>345000</v>
       </c>
       <c r="E8" s="3">
-        <v>904100</v>
+        <v>906000</v>
       </c>
       <c r="F8" s="3">
-        <v>981600</v>
+        <v>983800</v>
       </c>
       <c r="G8" s="3">
-        <v>291400</v>
+        <v>292000</v>
       </c>
       <c r="H8" s="3">
-        <v>54700</v>
+        <v>54900</v>
       </c>
       <c r="I8" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>96600</v>
+        <v>96800</v>
       </c>
       <c r="E9" s="3">
-        <v>330300</v>
+        <v>331100</v>
       </c>
       <c r="F9" s="3">
-        <v>242800</v>
+        <v>243400</v>
       </c>
       <c r="G9" s="3">
-        <v>73800</v>
+        <v>74000</v>
       </c>
       <c r="H9" s="3">
         <v>19700</v>
       </c>
       <c r="I9" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>247600</v>
+        <v>248200</v>
       </c>
       <c r="E10" s="3">
-        <v>573700</v>
+        <v>575000</v>
       </c>
       <c r="F10" s="3">
-        <v>738800</v>
+        <v>740400</v>
       </c>
       <c r="G10" s="3">
-        <v>217500</v>
+        <v>218000</v>
       </c>
       <c r="H10" s="3">
         <v>35100</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>61300</v>
+        <v>61500</v>
       </c>
       <c r="E12" s="3">
-        <v>172600</v>
+        <v>173000</v>
       </c>
       <c r="F12" s="3">
-        <v>101200</v>
+        <v>101400</v>
       </c>
       <c r="G12" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="H12" s="3">
         <v>10200</v>
@@ -904,7 +904,7 @@
         <v>13200</v>
       </c>
       <c r="F14" s="3">
-        <v>-35300</v>
+        <v>-35400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>360500</v>
+        <v>361300</v>
       </c>
       <c r="E17" s="3">
-        <v>1342300</v>
+        <v>1345200</v>
       </c>
       <c r="F17" s="3">
-        <v>1188100</v>
+        <v>1190700</v>
       </c>
       <c r="G17" s="3">
-        <v>261700</v>
+        <v>262200</v>
       </c>
       <c r="H17" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="I17" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1012,13 +1012,13 @@
         <v>-16300</v>
       </c>
       <c r="E18" s="3">
-        <v>-438200</v>
+        <v>-439100</v>
       </c>
       <c r="F18" s="3">
-        <v>-206500</v>
+        <v>-206900</v>
       </c>
       <c r="G18" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="H18" s="3">
         <v>2600</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="E20" s="3">
         <v>16300</v>
@@ -1093,13 +1093,13 @@
         <v>9400</v>
       </c>
       <c r="E21" s="3">
-        <v>-406400</v>
+        <v>-407300</v>
       </c>
       <c r="F21" s="3">
-        <v>-188800</v>
+        <v>-189200</v>
       </c>
       <c r="G21" s="3">
-        <v>35000</v>
+        <v>35100</v>
       </c>
       <c r="H21" s="3">
         <v>3500</v>
@@ -1159,16 +1159,16 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-421900</v>
+        <v>-422800</v>
       </c>
       <c r="F23" s="3">
-        <v>-196700</v>
+        <v>-197100</v>
       </c>
       <c r="G23" s="3">
         <v>33400</v>
       </c>
       <c r="H23" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="3">
         <v>-12600</v>
@@ -1192,7 +1192,7 @@
         <v>-2200</v>
       </c>
       <c r="E24" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F24" s="3">
         <v>-4800</v>
@@ -1258,13 +1258,13 @@
         <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-427600</v>
+        <v>-428500</v>
       </c>
       <c r="F26" s="3">
-        <v>-191900</v>
+        <v>-192300</v>
       </c>
       <c r="G26" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="H26" s="3">
         <v>2600</v>
@@ -1291,19 +1291,19 @@
         <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-427600</v>
+        <v>-428500</v>
       </c>
       <c r="F27" s="3">
-        <v>-191900</v>
+        <v>-192300</v>
       </c>
       <c r="G27" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="H27" s="3">
         <v>-2700</v>
       </c>
       <c r="I27" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="E32" s="3">
         <v>-16300</v>
@@ -1489,19 +1489,19 @@
         <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-427600</v>
+        <v>-428500</v>
       </c>
       <c r="F33" s="3">
-        <v>-191900</v>
+        <v>-192300</v>
       </c>
       <c r="G33" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="H33" s="3">
         <v>-2700</v>
       </c>
       <c r="I33" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1555,19 +1555,19 @@
         <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-427600</v>
+        <v>-428500</v>
       </c>
       <c r="F35" s="3">
-        <v>-191900</v>
+        <v>-192300</v>
       </c>
       <c r="G35" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="H35" s="3">
         <v>-2700</v>
       </c>
       <c r="I35" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E41" s="3">
-        <v>100400</v>
+        <v>100700</v>
       </c>
       <c r="F41" s="3">
-        <v>48900</v>
+        <v>49000</v>
       </c>
       <c r="G41" s="3">
         <v>10200</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>402800</v>
+        <v>403700</v>
       </c>
       <c r="E42" s="3">
-        <v>382200</v>
+        <v>383000</v>
       </c>
       <c r="F42" s="3">
-        <v>1010100</v>
+        <v>1012300</v>
       </c>
       <c r="G42" s="3">
-        <v>203000</v>
+        <v>203500</v>
       </c>
       <c r="H42" s="3">
         <v>27300</v>
@@ -1719,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="E43" s="3">
         <v>6900</v>
@@ -1755,7 +1755,7 @@
         <v>3100</v>
       </c>
       <c r="E44" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F44" s="3">
         <v>6600</v>
@@ -1788,13 +1788,13 @@
         <v>24500</v>
       </c>
       <c r="E45" s="3">
-        <v>50700</v>
+        <v>50900</v>
       </c>
       <c r="F45" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="G45" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="H45" s="3">
         <v>3400</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>574100</v>
+        <v>575300</v>
       </c>
       <c r="E46" s="3">
-        <v>542400</v>
+        <v>543600</v>
       </c>
       <c r="F46" s="3">
-        <v>1165200</v>
+        <v>1167800</v>
       </c>
       <c r="G46" s="3">
-        <v>249200</v>
+        <v>249800</v>
       </c>
       <c r="H46" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="I46" s="3">
         <v>7200</v>
@@ -1857,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>73100</v>
+        <v>73300</v>
       </c>
       <c r="G47" s="3">
-        <v>163700</v>
+        <v>164100</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>87600</v>
+        <v>87800</v>
       </c>
       <c r="E48" s="3">
-        <v>142400</v>
+        <v>142800</v>
       </c>
       <c r="F48" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="G48" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="H48" s="3">
         <v>2300</v>
@@ -1923,7 +1923,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E52" s="3">
         <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="G52" s="3">
         <v>6900</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>671800</v>
+        <v>673300</v>
       </c>
       <c r="E54" s="3">
-        <v>692300</v>
+        <v>693800</v>
       </c>
       <c r="F54" s="3">
-        <v>1472300</v>
+        <v>1475500</v>
       </c>
       <c r="G54" s="3">
-        <v>467700</v>
+        <v>468700</v>
       </c>
       <c r="H54" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="I54" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="E59" s="3">
-        <v>242500</v>
+        <v>243100</v>
       </c>
       <c r="F59" s="3">
-        <v>578300</v>
+        <v>579600</v>
       </c>
       <c r="G59" s="3">
-        <v>225600</v>
+        <v>226100</v>
       </c>
       <c r="H59" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="I59" s="3">
         <v>21400</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="E60" s="3">
-        <v>242500</v>
+        <v>243100</v>
       </c>
       <c r="F60" s="3">
-        <v>578300</v>
+        <v>579600</v>
       </c>
       <c r="G60" s="3">
-        <v>225600</v>
+        <v>226100</v>
       </c>
       <c r="H60" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="I60" s="3">
         <v>21400</v>
@@ -2313,13 +2313,13 @@
         <v>23600</v>
       </c>
       <c r="E62" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="F62" s="3">
-        <v>104500</v>
+        <v>104700</v>
       </c>
       <c r="G62" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>245300</v>
+        <v>245800</v>
       </c>
       <c r="E66" s="3">
-        <v>295400</v>
+        <v>296000</v>
       </c>
       <c r="F66" s="3">
-        <v>682800</v>
+        <v>684300</v>
       </c>
       <c r="G66" s="3">
-        <v>253100</v>
+        <v>253700</v>
       </c>
       <c r="H66" s="3">
-        <v>50200</v>
+        <v>50400</v>
       </c>
       <c r="I66" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>64200</v>
+        <v>64400</v>
       </c>
       <c r="I70" s="3">
-        <v>58800</v>
+        <v>59000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-655300</v>
+        <v>-656700</v>
       </c>
       <c r="E72" s="3">
-        <v>-657100</v>
+        <v>-658500</v>
       </c>
       <c r="F72" s="3">
-        <v>-229500</v>
+        <v>-230000</v>
       </c>
       <c r="G72" s="3">
-        <v>-37600</v>
+        <v>-37700</v>
       </c>
       <c r="H72" s="3">
-        <v>-68000</v>
+        <v>-68200</v>
       </c>
       <c r="I72" s="3">
-        <v>-66200</v>
+        <v>-66300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>426500</v>
+        <v>427500</v>
       </c>
       <c r="E76" s="3">
-        <v>396900</v>
+        <v>397800</v>
       </c>
       <c r="F76" s="3">
-        <v>789500</v>
+        <v>791200</v>
       </c>
       <c r="G76" s="3">
-        <v>214600</v>
+        <v>215000</v>
       </c>
       <c r="H76" s="3">
-        <v>-67800</v>
+        <v>-68100</v>
       </c>
       <c r="I76" s="3">
-        <v>-66000</v>
+        <v>-66200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2861,19 +2861,19 @@
         <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-427600</v>
+        <v>-428500</v>
       </c>
       <c r="F81" s="3">
-        <v>-191900</v>
+        <v>-192300</v>
       </c>
       <c r="G81" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="H81" s="3">
         <v>-2700</v>
       </c>
       <c r="I81" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E83" s="3">
         <v>15500</v>
@@ -3107,19 +3107,19 @@
         <v>7500</v>
       </c>
       <c r="E89" s="3">
-        <v>-576700</v>
+        <v>-578000</v>
       </c>
       <c r="F89" s="3">
-        <v>83100</v>
+        <v>83300</v>
       </c>
       <c r="G89" s="3">
-        <v>177100</v>
+        <v>177400</v>
       </c>
       <c r="H89" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="I89" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3155,13 +3155,13 @@
         <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-37500</v>
+        <v>-37600</v>
       </c>
       <c r="F91" s="3">
-        <v>-49400</v>
+        <v>-49500</v>
       </c>
       <c r="G91" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="H91" s="3">
         <v>-1700</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="E94" s="3">
-        <v>663100</v>
+        <v>664500</v>
       </c>
       <c r="F94" s="3">
-        <v>-771100</v>
+        <v>-772700</v>
       </c>
       <c r="G94" s="3">
-        <v>-345100</v>
+        <v>-345800</v>
       </c>
       <c r="H94" s="3">
         <v>-27400</v>
@@ -3437,10 +3437,10 @@
         <v>-13900</v>
       </c>
       <c r="F100" s="3">
-        <v>726400</v>
+        <v>728000</v>
       </c>
       <c r="G100" s="3">
-        <v>171700</v>
+        <v>172100</v>
       </c>
       <c r="H100" s="3">
         <v>-4000</v>
@@ -3497,10 +3497,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="E102" s="3">
-        <v>74700</v>
+        <v>74800</v>
       </c>
       <c r="F102" s="3">
         <v>38800</v>
